--- a/pred_ohlcv/54_21/2020-01-11 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 FX ohlcv.xlsx
@@ -1952,7 +1952,7 @@
         <v>-332235.4133140231</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-290413.6040140231</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-315066.5525140231</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-303399.1740140231</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-303391.1740140231</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-302141.1740140231</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-302141.1740140231</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-314470.6985140231</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-314461.8985140231</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-314694.0985140231</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-302730.6443140231</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-335999.3986140231</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-335991.3986140231</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-344497.1302140231</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-346571.2095140231</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-344774.5951140231</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-342243.8880140231</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-342243.8880140231</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-344567.3601557353</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-352935.7972557353</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-364045.8863557352</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-837684.7178480453</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-839162.4478480453</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-839154.4478480453</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-851436.9398480452</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-838991.2284480452</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-825400.1894480452</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-829235.6398175071</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-831999.7244175071</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-887140.5025175071</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 FX ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-333246.8660140231</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-332235.4133140231</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-332076.0609140231</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-333587.2269140231</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-336850.3159140231</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-333611.3611140231</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-333611.3611140231</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-333611.3611140231</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-333622.3611140231</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-287742.5493140231</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-302141.1740140231</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-297168.2349140231</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-314694.0985140231</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-302730.6443140231</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-313350.8401140231</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-335999.3986140231</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-327715.6647445707</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-832888.5256480454</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-831937.0331480453</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-837684.7178480453</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-837976.4478480453</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-837976.4478480453</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-839162.4478480453</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-839154.4478480453</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-841227.2173480453</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-841219.2173480453</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-838590.2318480454</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-838590.2318480454</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-829984.8318480453</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-829984.8318480453</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-818178.5511480453</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-819464.2966480453</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-818094.8099480453</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-818587.5194480453</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-817920.1716480453</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-817920.1716480453</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-816767.9256480453</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-816757.9256480453</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-817518.9256480453</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-817518.9256480453</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-817510.9256480453</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-819351.9256480453</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-819343.9256480453</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-821517.9256480453</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-821507.9256480453</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-821593.7598480453</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-840588.8577480452</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-838786.2543480452</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-838991.2284480452</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-825400.1894480452</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-825400.1894480452</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-829495.9800175071</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-829235.6398175071</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-829235.6398175071</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-830911.6398175071</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-887140.5025175071</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
